--- a/cbrunner/Parameters/Parameters_InterPoolFluxes.xlsx
+++ b/cbrunner/Parameters/Parameters_InterPoolFluxes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\My Drive\Code_Python\Sawtooth\R2018a\Parameters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEC2A6CB-D4DD-4164-8F80-CB3149EAE4FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAEC5E16-93F2-425B-B61A-B5D71A02CA4E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="30000" windowHeight="19416" xr2:uid="{D41C3BEB-5BB2-4BE1-B3CC-3DF98D167BDE}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{D41C3BEB-5BB2-4BE1-B3CC-3DF98D167BDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1050,9 +1050,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{960F1440-90F8-4FAE-9206-6093E3FF0EEA}">
   <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">

--- a/cbrunner/Parameters/Parameters_InterPoolFluxes.xlsx
+++ b/cbrunner/Parameters/Parameters_InterPoolFluxes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAEC5E16-93F2-425B-B61A-B5D71A02CA4E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E325A56-03C7-4C40-8D3E-F3ACE30D4700}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{D41C3BEB-5BB2-4BE1-B3CC-3DF98D167BDE}"/>
+    <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{D41C3BEB-5BB2-4BE1-B3CC-3DF98D167BDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1051,7 +1051,7 @@
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1677,10 +1677,9 @@
         <v>12</v>
       </c>
       <c r="B21" s="32"/>
-      <c r="C21" s="33">
+      <c r="D21" s="33">
         <v>0.17</v>
       </c>
-      <c r="D21" s="33"/>
       <c r="E21" s="34"/>
       <c r="F21" s="32"/>
       <c r="G21" s="35"/>
@@ -1707,8 +1706,7 @@
         <v>11</v>
       </c>
       <c r="B22" s="32"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33">
+      <c r="C22" s="33">
         <v>0.17</v>
       </c>
       <c r="E22" s="34"/>

--- a/cbrunner/Parameters/Parameters_InterPoolFluxes.xlsx
+++ b/cbrunner/Parameters/Parameters_InterPoolFluxes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54EBE6A-5532-4540-8E52-55BF2E369CA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06162EA1-DEF8-4B60-83E1-392BF03D6627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{D41C3BEB-5BB2-4BE1-B3CC-3DF98D167BDE}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="49">
   <si>
     <t>Name</t>
   </si>
@@ -175,6 +175,12 @@
   </si>
   <si>
     <t>StemNonMerchMorToSnagStem</t>
+  </si>
+  <si>
+    <t>FractionSnagStemThatIsNonMerch</t>
+  </si>
+  <si>
+    <t>Consistent with the fraction of merch to non-merch in TIPSY at age 100</t>
   </si>
 </sst>
 </file>
@@ -548,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94EB77F6-8510-40FF-B3A2-64B14A6D2358}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1385,6 +1391,26 @@
         <v>40</v>
       </c>
     </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C42" s="4">
+        <v>-9999</v>
+      </c>
+      <c r="D42" s="4">
+        <v>-9999</v>
+      </c>
+      <c r="E42" s="4">
+        <v>-9999</v>
+      </c>
+      <c r="F42" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
